--- a/data/financial_statements/soci/JNJ.xlsx
+++ b/data/financial_statements/soci/JNJ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="74">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Revenue</t>
@@ -122,9 +242,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -177,12 +294,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -479,3995 +593,4070 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN34"/>
+  <dimension ref="A1:AO34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>23706000000</v>
+      </c>
+      <c r="C2">
         <v>23791000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>24020000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>23426000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>24804000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>23338000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>23312000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>22321000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>22475000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>21082000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>18336000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>20691000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>20747000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>20729000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>20562000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>20021000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>20394000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>20348000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>20830000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>20009000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>20195000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>19650000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>18839000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>17766000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>18106000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>17820000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>18482000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>17482000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>17811000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>17102000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>17787000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>17374000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>18254000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>18467000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>19495000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>18115000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>18355000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>17575000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>17877000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>17505000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>-0.0443</v>
+      </c>
+      <c r="C3">
         <v>0.0194</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>0.0304</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>0.0495</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.1036</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>0.107</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.2714</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>0.0788</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.0833</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>0.017</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>-0.1083</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>0.0335</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>0.0173</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>0.0187</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>-0.0129</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>0.0005999999999999999</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>0.009900000000000001</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>0.0355</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>0.1057</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>0.1263</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>0.1154</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>0.1027</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>0.0193</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>0.0162</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>0.0166</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>0.042</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>0.0391</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>0.0062</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>-0.0243</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>-0.07389999999999999</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>-0.0876</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>-0.0409</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>-0.0055</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>0.0508</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>0.0905</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>0.0348</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>0.0454</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>0.0307</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>0.0851</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>0.08459999999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>7765000000</v>
+      </c>
+      <c r="C4">
         <v>7807000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>7919000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>7598000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>7955000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>7250000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>7587000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>7063000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>7814000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>6972000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>6579000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>7062000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>7134000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>6867000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>6940000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>6615000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>6961000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>6589000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>6927000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>6614000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>7259000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>6925000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>5846000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>5409000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>5638000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>5486000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>5336000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>5329000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>5673000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>5224000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>5357000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>5282000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>5853000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>5399000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>6039000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>5455000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>5955000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>5344000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>5489000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>5554000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B5">
+        <v>15941000000</v>
+      </c>
+      <c r="C5">
         <v>15984000000</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>16101000000</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>15828000000</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>16849000000</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>16088000000</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>15725000000</v>
       </c>
-      <c r="H5">
+      <c r="I5">
         <v>15258000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>14661000000</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>14110000000</v>
       </c>
-      <c r="K5">
+      <c r="L5">
         <v>11757000000</v>
       </c>
-      <c r="L5">
+      <c r="M5">
         <v>13629000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>13613000000</v>
       </c>
-      <c r="N5">
+      <c r="O5">
         <v>13862000000</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>13622000000</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>13406000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>13433000000</v>
       </c>
-      <c r="R5">
+      <c r="S5">
         <v>13759000000</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>13903000000</v>
       </c>
-      <c r="T5">
+      <c r="U5">
         <v>13395000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>12936000000</v>
       </c>
-      <c r="V5">
+      <c r="W5">
         <v>12725000000</v>
       </c>
-      <c r="W5">
+      <c r="X5">
         <v>12993000000</v>
       </c>
-      <c r="X5">
+      <c r="Y5">
         <v>12357000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>12468000000</v>
       </c>
-      <c r="Z5">
+      <c r="AA5">
         <v>12334000000</v>
       </c>
-      <c r="AA5">
+      <c r="AB5">
         <v>13146000000</v>
       </c>
-      <c r="AB5">
+      <c r="AC5">
         <v>12153000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>12138000000</v>
       </c>
-      <c r="AD5">
+      <c r="AE5">
         <v>11878000000</v>
       </c>
-      <c r="AE5">
+      <c r="AF5">
         <v>12430000000</v>
       </c>
-      <c r="AF5">
+      <c r="AG5">
         <v>12092000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>12401000000</v>
       </c>
-      <c r="AH5">
+      <c r="AI5">
         <v>13068000000</v>
       </c>
-      <c r="AI5">
+      <c r="AJ5">
         <v>13456000000</v>
       </c>
-      <c r="AJ5">
+      <c r="AK5">
         <v>12660000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>12400000000</v>
       </c>
-      <c r="AL5">
+      <c r="AM5">
         <v>12231000000</v>
       </c>
-      <c r="AM5">
+      <c r="AN5">
         <v>12388000000</v>
       </c>
-      <c r="AN5">
+      <c r="AO5">
         <v>11951000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="B6">
+        <v>3841000000</v>
+      </c>
+      <c r="C6">
         <v>3597000000</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>3703000000</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>3462000000</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>4720000000</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3422000000</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3394000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>3178000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>4032000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>2840000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>2707000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>2580000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>3232000000</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <v>2599000000</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>2666000000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>2858000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>3224000000</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>2508000000</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>2639000000</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <v>2404000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>3643000000</v>
       </c>
-      <c r="V6">
+      <c r="W6">
         <v>2585000000</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <v>2296000000</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <v>2070000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>2688000000</v>
       </c>
-      <c r="Z6">
+      <c r="AA6">
         <v>2178000000</v>
       </c>
-      <c r="AA6">
+      <c r="AB6">
         <v>2264000000</v>
       </c>
-      <c r="AB6">
+      <c r="AC6">
         <v>2013000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>2864000000</v>
       </c>
-      <c r="AD6">
+      <c r="AE6">
         <v>2154000000</v>
       </c>
-      <c r="AE6">
+      <c r="AF6">
         <v>2129000000</v>
       </c>
-      <c r="AF6">
+      <c r="AG6">
         <v>1899000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>2635000000</v>
       </c>
-      <c r="AH6">
+      <c r="AI6">
         <v>2023000000</v>
       </c>
-      <c r="AI6">
+      <c r="AJ6">
         <v>2005000000</v>
       </c>
-      <c r="AJ6">
+      <c r="AK6">
         <v>1831000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>2411000000</v>
       </c>
-      <c r="AL6">
+      <c r="AM6">
         <v>2042000000</v>
       </c>
-      <c r="AM6">
+      <c r="AN6">
         <v>1946000000</v>
       </c>
-      <c r="AN6">
+      <c r="AO6">
         <v>1784000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="B7">
+        <v>6512000000</v>
+      </c>
+      <c r="C7">
         <v>6089000000</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>6226000000</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>5938000000</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>7154000000</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>6000000000</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>6073000000</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>5432000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>6457000000</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>5431000000</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>4993000000</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5203000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>6039000000</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <v>5374000000</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>5546000000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>5219000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>5991000000</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>5543000000</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>5743000000</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <v>5263000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>6045000000</v>
       </c>
-      <c r="V7">
+      <c r="W7">
         <v>5423000000</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <v>5289000000</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <v>4763000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>5431000000</v>
       </c>
-      <c r="Z7">
+      <c r="AA7">
         <v>4772000000</v>
       </c>
-      <c r="AA7">
+      <c r="AB7">
         <v>5176000000</v>
       </c>
-      <c r="AB7">
+      <c r="AC7">
         <v>4688000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>5891000000</v>
       </c>
-      <c r="AD7">
+      <c r="AE7">
         <v>5081000000</v>
       </c>
-      <c r="AE7">
+      <c r="AF7">
         <v>5384000000</v>
       </c>
-      <c r="AF7">
+      <c r="AG7">
         <v>4847000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>5822000000</v>
       </c>
-      <c r="AH7">
+      <c r="AI7">
         <v>5468000000</v>
       </c>
-      <c r="AI7">
+      <c r="AJ7">
         <v>5481000000</v>
       </c>
-      <c r="AJ7">
+      <c r="AK7">
         <v>5183000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>5917000000</v>
       </c>
-      <c r="AL7">
+      <c r="AM7">
         <v>5314000000</v>
       </c>
-      <c r="AM7">
+      <c r="AN7">
         <v>5376000000</v>
       </c>
-      <c r="AN7">
+      <c r="AO7">
         <v>5223000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="B8">
+        <v>4201000000</v>
+      </c>
+      <c r="C8">
         <v>5822000000</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>5840000000</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>5862000000</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>4836000000</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3849000000</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>6662000000</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>7429000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1647000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>4401000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>3940000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>6509000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>4218000000</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <v>1647000000</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>7041000000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>4422000000</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <v>3122000000</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>4423000000</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>4973000000</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <v>5481000000</v>
       </c>
-      <c r="U8">
+      <c r="V8">
         <v>2560000000</v>
       </c>
-      <c r="V8">
+      <c r="W8">
         <v>4790000000</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <v>4748000000</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <v>5575000000</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <v>4324000000</v>
       </c>
-      <c r="Z8">
+      <c r="AA8">
         <v>5281000000</v>
       </c>
-      <c r="AA8">
+      <c r="AB8">
         <v>4904000000</v>
       </c>
-      <c r="AB8">
+      <c r="AC8">
         <v>5294000000</v>
       </c>
-      <c r="AC8">
+      <c r="AD8">
         <v>3758000000</v>
       </c>
-      <c r="AD8">
+      <c r="AE8">
         <v>4122000000</v>
       </c>
-      <c r="AE8">
+      <c r="AF8">
         <v>5741000000</v>
       </c>
-      <c r="AF8">
+      <c r="AG8">
         <v>5575000000</v>
       </c>
-      <c r="AG8">
+      <c r="AH8">
         <v>2703000000</v>
       </c>
-      <c r="AH8">
+      <c r="AI8">
         <v>6810000000</v>
       </c>
-      <c r="AI8">
+      <c r="AJ8">
         <v>5626000000</v>
       </c>
-      <c r="AJ8">
+      <c r="AK8">
         <v>5424000000</v>
       </c>
-      <c r="AK8">
+      <c r="AL8">
         <v>2750000000</v>
       </c>
-      <c r="AL8">
+      <c r="AM8">
         <v>3667000000</v>
       </c>
-      <c r="AM8">
+      <c r="AN8">
         <v>4793000000</v>
       </c>
-      <c r="AN8">
+      <c r="AO8">
         <v>4261000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>-77000000</v>
+      </c>
+      <c r="C9">
         <v>51000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>38000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>10000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>60000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>20000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>40000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>63000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>87000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>44000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>45000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>25000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>85000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>48000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>83000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>102000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>250000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>243000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>253000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>259000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>274000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>229000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>227000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>204000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>184000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>192000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>190000000</v>
-      </c>
-      <c r="AB9">
-        <v>160000000</v>
       </c>
       <c r="AC9">
         <v>160000000</v>
       </c>
       <c r="AD9">
+        <v>160000000</v>
+      </c>
+      <c r="AE9">
         <v>123000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>131000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>138000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>139000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>130000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>128000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>136000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>134000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>105000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>118000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>125000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10">
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10">
         <v>150000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>64000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>22000000</v>
-      </c>
-      <c r="E10">
-        <v>13000000</v>
       </c>
       <c r="F10">
         <v>13000000</v>
       </c>
       <c r="G10">
+        <v>13000000</v>
+      </c>
+      <c r="H10">
         <v>12000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>15000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>13000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>12000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>19000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>67000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>81000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11">
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11">
         <v>219000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>-115000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>770000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>181000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3732000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>588000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>948000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>3033000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>2050000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>359000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>-1518000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>-1694000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>4201000000</v>
+      </c>
+      <c r="C12">
         <v>5822000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>5840000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>5862000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>4836000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3849000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>6662000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>7429000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>1647000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>4401000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>3940000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>6509000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>4218000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>1647000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>7041000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>4422000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>3122000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>4423000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>4973000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>5481000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>2560000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>4790000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>4748000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>5575000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>4324000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>5281000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>4904000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>5294000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>3758000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>4122000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>5741000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>5575000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>2703000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>6810000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>5626000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>5424000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>2750000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>3667000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>4793000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>4261000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>681000000</v>
+      </c>
+      <c r="C13">
         <v>1364000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1026000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>713000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>100000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>182000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>384000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>1232000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-91000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>847000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>314000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>713000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>208000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-106000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>1434000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>673000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>80000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>489000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>1019000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>1114000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>13273000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>1026000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>921000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>1153000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>510000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>1009000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>907000000</v>
       </c>
-      <c r="AB13">
+      <c r="AC13">
         <v>837000000</v>
       </c>
-      <c r="AC13">
+      <c r="AD13">
         <v>543000000</v>
       </c>
-      <c r="AD13">
+      <c r="AE13">
         <v>764000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>1225000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>1255000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>182000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>2061000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>1300000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>697000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-769000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>685000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>960000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>764000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>3520000000</v>
+      </c>
+      <c r="C14">
         <v>4458000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>4814000000</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>5149000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>4736000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>3667000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>6278000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>6197000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>1738000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>3554000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>3626000000</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>5796000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>4010000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>1753000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>5607000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>3749000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>3042000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>3934000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>3954000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>4367000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>-10713000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>3764000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>3827000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>4422000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>3814000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>4272000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>3997000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>4457000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>3215000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>3358000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>4516000000</v>
       </c>
-      <c r="AF14">
+      <c r="AG14">
         <v>4320000000</v>
       </c>
-      <c r="AG14">
+      <c r="AH14">
         <v>2521000000</v>
       </c>
-      <c r="AH14">
+      <c r="AI14">
         <v>4749000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>4326000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>4727000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>3519000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>2982000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>3833000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>3497000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>3520000000</v>
+      </c>
+      <c r="C15">
         <v>4458000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>4814000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>5149000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>4736000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>3667000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>6278000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>6197000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>1738000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>3554000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>3626000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>5796000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>4010000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>1753000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>5607000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>3749000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>3042000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>3934000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>3954000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>4367000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>-10713000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>3764000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>3827000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>4422000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>3814000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>4272000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>3997000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>4457000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>3215000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>3358000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>4516000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>4320000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>2521000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>4749000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>4326000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>4727000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>3519000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>2982000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>3833000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>3497000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16">
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16">
         <v>1.68</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>1.8</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>1.93</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>1.77</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>1.37</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>2.35</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>2.32</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>0.65</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>1.33</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>1.36</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>2.17</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>1.5</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>1.81</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>2.08</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>1.39</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>1.12</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>1.44</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>1.45</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>1.6</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-3.99</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>1.37</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>1.4</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>1.61</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>1.38</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>1.53</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>1.43</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>1.54</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>1.15</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>1.2</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>1.61</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>1.53</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>0.89</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>1.66</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>1.51</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>1.64</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>1.23</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>1.04</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>1.33</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>1.22</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17">
         <v>1.68</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>1.8</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>1.93</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>1.77</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>1.37</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>2.35</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>2.32</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>0.65</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>1.33</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>1.36</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>2.17</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>1.5</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>1.81</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>2.08</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>1.39</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>1.12</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>1.44</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>1.45</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>1.6</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-3.99</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>1.37</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>1.4</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>1.61</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>1.38</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>1.53</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>1.43</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>1.54</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>1.15</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>1.2</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>1.61</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1.53</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>0.89</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>1.66</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>1.51</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>1.64</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>1.23</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>1.04</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>1.33</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1.22</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C18">
         <v>2627900000</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2629600000</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>2629200000</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>2632100000</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>2632600000</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>2632500000</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>2631600000</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>2632800000</v>
       </c>
-      <c r="J18">
+      <c r="K18">
         <v>2632500000</v>
       </c>
-      <c r="K18">
+      <c r="L18">
         <v>2632900000</v>
       </c>
-      <c r="L18">
+      <c r="M18">
         <v>2633700000</v>
       </c>
-      <c r="M18">
+      <c r="N18">
         <v>2645100000</v>
       </c>
-      <c r="N18">
+      <c r="O18">
         <v>2635200000</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>2652500000</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>2660800000</v>
       </c>
-      <c r="Q18">
+      <c r="R18">
         <v>2681500000</v>
       </c>
-      <c r="R18">
+      <c r="S18">
         <v>2683200000</v>
       </c>
-      <c r="S18">
+      <c r="T18">
         <v>2682300000</v>
       </c>
-      <c r="T18">
+      <c r="U18">
         <v>2682200000</v>
       </c>
-      <c r="U18">
+      <c r="V18">
         <v>2692000000</v>
       </c>
-      <c r="V18">
+      <c r="W18">
         <v>2684600000</v>
       </c>
-      <c r="W18">
+      <c r="X18">
         <v>2691900000</v>
       </c>
-      <c r="X18">
+      <c r="Y18">
         <v>2706600000</v>
       </c>
-      <c r="Y18">
+      <c r="Z18">
         <v>2737300000</v>
       </c>
-      <c r="Z18">
+      <c r="AA18">
         <v>2731600000</v>
       </c>
-      <c r="AA18">
+      <c r="AB18">
         <v>2745400000</v>
       </c>
-      <c r="AB18">
+      <c r="AC18">
         <v>2757200000</v>
       </c>
-      <c r="AC18">
+      <c r="AD18">
         <v>2771800000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>2768400000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>2772300000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>2782600000</v>
       </c>
-      <c r="AG18">
+      <c r="AH18">
         <v>2815200000</v>
       </c>
-      <c r="AH18">
+      <c r="AI18">
         <v>2814400000</v>
       </c>
-      <c r="AI18">
+      <c r="AJ18">
         <v>2826400000</v>
       </c>
-      <c r="AJ18">
+      <c r="AK18">
         <v>2826800000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>2809200000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>2818400000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>2809700000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>2790200000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>2650100000</v>
+      </c>
+      <c r="C19">
         <v>2661300000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2667900000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>2666500000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>2674000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>2674900000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>2671600000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>2672700000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>2670700000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>2669300000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>2665500000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>2671000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>2684300000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>2669900000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>2691700000</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>2698800000</v>
       </c>
-      <c r="Q19">
+      <c r="R19">
         <v>2728700000</v>
       </c>
-      <c r="R19">
+      <c r="S19">
         <v>2727600000</v>
       </c>
-      <c r="S19">
+      <c r="T19">
         <v>2721300000</v>
       </c>
-      <c r="T19">
+      <c r="U19">
         <v>2731900000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>2745300000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>2737700000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>2741500000</v>
       </c>
-      <c r="X19">
+      <c r="Y19">
         <v>2754500000</v>
       </c>
-      <c r="Y19">
+      <c r="Z19">
         <v>2788900000</v>
       </c>
-      <c r="Z19">
+      <c r="AA19">
         <v>2785400000</v>
       </c>
-      <c r="AA19">
+      <c r="AB19">
         <v>2794200000</v>
       </c>
-      <c r="AB19">
+      <c r="AC19">
         <v>2803800000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>2812900000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>2807200000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>2812000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>2826000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>2863900000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>2864300000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>2874200000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>2874700000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>2877000000</v>
       </c>
-      <c r="AL19">
+      <c r="AM19">
         <v>2881200000</v>
       </c>
-      <c r="AM19">
+      <c r="AN19">
         <v>2893000000</v>
       </c>
-      <c r="AN19">
+      <c r="AO19">
         <v>2858800000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>0.6724</v>
+      </c>
+      <c r="C20">
         <v>0.6719000000000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>0.6703</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>0.6757</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>0.6793</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>0.6893</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>0.6745</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>0.6836</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>0.6523</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>0.6693</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>0.6412</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>0.6587</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>0.6561</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>0.6687</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>0.6625</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>0.6696</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>0.6587</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>0.6762</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>0.6675</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>0.6694</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>0.6405999999999999</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>0.6476</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>0.6897</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>0.6955</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>0.6886</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>0.6921</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>0.7113</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>0.6952</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>0.6815</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>0.6945</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>0.6988</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>0.696</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>0.6794</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>0.7076</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>0.6902</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>0.6989</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>0.6756</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>0.6959</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>0.6929999999999999</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>0.6827</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>0.174</v>
+      </c>
+      <c r="C21">
         <v>0.2532</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>0.2474</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>0.2516</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>0.1979</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>0.1663</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>0.288</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>0.3363</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>0.07770000000000001</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>0.2114</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>0.2184</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>0.319</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>0.2113</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>0.0861</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>0.3507</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>0.2309</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>0.175</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>0.2379</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>0.2569</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>0.2926</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>0.1445</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>0.2592</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>0.2697</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>0.3321</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>0.2545</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>0.3126</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>0.2804</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>0.3167</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>0.223</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>0.2501</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>0.3315</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>0.3299</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>0.1566</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>0.3768</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>0.2959</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>0.3079</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>0.1581</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>0.2156</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>0.2757</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>0.2518</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>0.1772</v>
+      </c>
+      <c r="C22">
         <v>0.2447</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>0.2431</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>0.2502</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>0.195</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>0.1649</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>0.2858</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>0.3328</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>0.0733</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>0.2088</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>0.2149</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>0.3146</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>0.2033</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>0.0795</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>0.3424</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>0.2209</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>0.1531</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>0.2174</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>0.2387</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>0.2739</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>0.1268</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>0.2438</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>0.252</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>0.3138</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>0.2388</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>0.2964</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>0.2653</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>0.3028</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>0.211</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>0.241</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>0.3228</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>0.3209</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>0.1481</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>0.3688</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>0.2886</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>0.2994</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>0.1498</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>0.2086</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>0.2681</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>0.2434</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
+        <v>0.1485</v>
+      </c>
+      <c r="C23">
         <v>0.1874</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>0.2004</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>0.2198</v>
       </c>
-      <c r="E23">
+      <c r="F23">
         <v>0.1909</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>0.1571</v>
       </c>
-      <c r="G23">
+      <c r="H23">
         <v>0.2693</v>
       </c>
-      <c r="H23">
+      <c r="I23">
         <v>0.2776</v>
       </c>
-      <c r="I23">
+      <c r="J23">
         <v>0.07729999999999999</v>
       </c>
-      <c r="J23">
+      <c r="K23">
         <v>0.1686</v>
       </c>
-      <c r="K23">
+      <c r="L23">
         <v>0.1978</v>
       </c>
-      <c r="L23">
+      <c r="M23">
         <v>0.2801</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>0.1933</v>
       </c>
-      <c r="N23">
+      <c r="O23">
         <v>0.08459999999999999</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>0.2727</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>0.1873</v>
       </c>
-      <c r="Q23">
+      <c r="R23">
         <v>0.1492</v>
       </c>
-      <c r="R23">
+      <c r="S23">
         <v>0.1933</v>
       </c>
-      <c r="S23">
+      <c r="T23">
         <v>0.1898</v>
       </c>
-      <c r="T23">
+      <c r="U23">
         <v>0.2183</v>
       </c>
-      <c r="U23">
+      <c r="V23">
         <v>-0.5305</v>
       </c>
-      <c r="V23">
+      <c r="W23">
         <v>0.1916</v>
       </c>
-      <c r="W23">
+      <c r="X23">
         <v>0.2031</v>
       </c>
-      <c r="X23">
+      <c r="Y23">
         <v>0.2489</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>0.2106</v>
       </c>
-      <c r="Z23">
+      <c r="AA23">
         <v>0.2397</v>
       </c>
-      <c r="AA23">
+      <c r="AB23">
         <v>0.2163</v>
       </c>
-      <c r="AB23">
+      <c r="AC23">
         <v>0.2549</v>
       </c>
-      <c r="AC23">
+      <c r="AD23">
         <v>0.1805</v>
       </c>
-      <c r="AD23">
+      <c r="AE23">
         <v>0.1964</v>
       </c>
-      <c r="AE23">
+      <c r="AF23">
         <v>0.2539</v>
       </c>
-      <c r="AF23">
+      <c r="AG23">
         <v>0.2486</v>
       </c>
-      <c r="AG23">
+      <c r="AH23">
         <v>0.1381</v>
       </c>
-      <c r="AH23">
+      <c r="AI23">
         <v>0.2572</v>
       </c>
-      <c r="AI23">
+      <c r="AJ23">
         <v>0.2219</v>
       </c>
-      <c r="AJ23">
+      <c r="AK23">
         <v>0.2609</v>
       </c>
-      <c r="AK23">
+      <c r="AL23">
         <v>0.1917</v>
       </c>
-      <c r="AL23">
+      <c r="AM23">
         <v>0.1697</v>
       </c>
-      <c r="AM23">
+      <c r="AN23">
         <v>0.2144</v>
       </c>
-      <c r="AN23">
+      <c r="AO23">
         <v>0.1998</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24">
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24">
         <v>7708000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>7686000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>7663000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>6752000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>5696000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>8553000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>9401000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>3687000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>6275000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>5730000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>8348000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>6200000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>3511000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>8917000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>6384000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>5303000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>6572000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>7069000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>7600000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>4788000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>6804000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>6230000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>6812000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>5663000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>6478000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>6082000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>6428000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>5004000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>5206000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>6785000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>6627000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>3850000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>7897000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>6720000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>6591000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>4004000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>4766000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>5918000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>5443000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>4124000000</v>
+      </c>
+      <c r="C25">
         <v>6023000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>5942000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>5894000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>4909000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>3882000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>6714000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>7507000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>1747000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>4457000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>4004000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>6601000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>4384000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>1784000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>7212000000</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>4623000000</v>
       </c>
-      <c r="Q25">
+      <c r="R25">
         <v>3568000000</v>
       </c>
-      <c r="R25">
+      <c r="S25">
         <v>4841000000</v>
       </c>
-      <c r="S25">
+      <c r="T25">
         <v>5352000000</v>
       </c>
-      <c r="T25">
+      <c r="U25">
         <v>5854000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>2919000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>5093000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>5080000000</v>
       </c>
-      <c r="X25">
+      <c r="Y25">
         <v>5900000000</v>
       </c>
-      <c r="Y25">
+      <c r="Z25">
         <v>4608000000</v>
       </c>
-      <c r="Z25">
+      <c r="AA25">
         <v>5570000000</v>
       </c>
-      <c r="AA25">
+      <c r="AB25">
         <v>5182000000</v>
       </c>
-      <c r="AB25">
+      <c r="AC25">
         <v>5537000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>3971000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>4277000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>5896000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>5732000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>2859000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>6958000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>5768000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>5578000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>2902000000</v>
       </c>
-      <c r="AL25">
+      <c r="AM25">
         <v>3790000000</v>
       </c>
-      <c r="AM25">
+      <c r="AN25">
         <v>4928000000</v>
       </c>
-      <c r="AN25">
+      <c r="AO25">
         <v>4407000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
+        <v>3520000000</v>
+      </c>
+      <c r="C26">
         <v>4458000000</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>4814000000</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>5149000000</v>
       </c>
-      <c r="E26">
+      <c r="F26">
         <v>4736000000</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>3667000000</v>
       </c>
-      <c r="G26">
+      <c r="H26">
         <v>6278000000</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>6197000000</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>1738000000</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>3554000000</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>3626000000</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>5796000000</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>4010000000</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>1753000000</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>5607000000</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>3749000000</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>3042000000</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>3934000000</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>3954000000</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>4367000000</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>-10713000000</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>3764000000</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>3827000000</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>4422000000</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>3814000000</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>4272000000</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>3997000000</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>4457000000</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>3215000000</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>3358000000</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>4516000000</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>4320000000</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>2521000000</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>4749000000</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>4326000000</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>4727000000</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>3519000000</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>2982000000</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>3833000000</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>3497000000</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>3520000000</v>
+      </c>
+      <c r="C27">
         <v>4458000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>4814000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>5149000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>4736000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>3667000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>6278000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>6197000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>1738000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>3554000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>3626000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>5796000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>4010000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>1753000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>5607000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>3749000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>3042000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>3934000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>3954000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>4367000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>-10713000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>3764000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>3827000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>4422000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>3814000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>4272000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>3997000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>4457000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>3215000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>3358000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>4516000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>4320000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>2521000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>4749000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>4326000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>4727000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>3519000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>2982000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>3833000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>3497000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="B28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28">
         <v>1.6964</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>1.8307</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.9584</v>
       </c>
-      <c r="E28">
+      <c r="F28">
         <v>1.7995</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>1.3929</v>
       </c>
-      <c r="G28">
+      <c r="H28">
         <v>2.3848</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>2.3548</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>0.6608000000000001</v>
       </c>
-      <c r="J28">
+      <c r="K28">
         <v>1.35</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>1.3772</v>
       </c>
-      <c r="L28">
+      <c r="M28">
         <v>2.2007</v>
       </c>
-      <c r="M28">
+      <c r="N28">
         <v>1.5278</v>
       </c>
-      <c r="N28">
+      <c r="O28">
         <v>0.6652</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>2.1139</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>1.409</v>
       </c>
-      <c r="Q28">
+      <c r="R28">
         <v>1.1362</v>
       </c>
-      <c r="R28">
+      <c r="S28">
         <v>1.4662</v>
       </c>
-      <c r="S28">
+      <c r="T28">
         <v>1.4741</v>
       </c>
-      <c r="T28">
+      <c r="U28">
         <v>1.6281</v>
       </c>
-      <c r="U28">
+      <c r="V28">
         <v>-3.9746</v>
       </c>
-      <c r="V28">
+      <c r="W28">
         <v>1.4021</v>
       </c>
-      <c r="W28">
+      <c r="X28">
         <v>1.4217</v>
       </c>
-      <c r="X28">
+      <c r="Y28">
         <v>1.6338</v>
       </c>
-      <c r="Y28">
+      <c r="Z28">
         <v>1.4061</v>
       </c>
-      <c r="Z28">
+      <c r="AA28">
         <v>1.5639</v>
       </c>
-      <c r="AA28">
+      <c r="AB28">
         <v>1.4559</v>
       </c>
-      <c r="AB28">
+      <c r="AC28">
         <v>1.6165</v>
       </c>
-      <c r="AC28">
+      <c r="AD28">
         <v>1.1648</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>1.213</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>1.629</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>1.5525</v>
       </c>
-      <c r="AG28">
+      <c r="AH28">
         <v>0.908</v>
       </c>
-      <c r="AH28">
+      <c r="AI28">
         <v>1.6874</v>
       </c>
-      <c r="AI28">
+      <c r="AJ28">
         <v>1.5306</v>
       </c>
-      <c r="AJ28">
+      <c r="AK28">
         <v>1.6722</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>1.2479</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>1.058</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>1.3642</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>1.2533</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
       </c>
       <c r="B29">
+        <v>1.3283</v>
+      </c>
+      <c r="C29">
         <v>1.6751</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>1.8044</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.931</v>
       </c>
-      <c r="E29">
+      <c r="F29">
         <v>1.7684</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>1.3709</v>
       </c>
-      <c r="G29">
+      <c r="H29">
         <v>2.3499</v>
       </c>
-      <c r="H29">
+      <c r="I29">
         <v>2.3186</v>
       </c>
-      <c r="I29">
+      <c r="J29">
         <v>0.6477000000000001</v>
       </c>
-      <c r="J29">
+      <c r="K29">
         <v>1.3314</v>
       </c>
-      <c r="K29">
+      <c r="L29">
         <v>1.3603</v>
       </c>
-      <c r="L29">
+      <c r="M29">
         <v>2.17</v>
       </c>
-      <c r="M29">
+      <c r="N29">
         <v>1.5036</v>
       </c>
-      <c r="N29">
+      <c r="O29">
         <v>0.6566</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>2.0831</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>1.3891</v>
       </c>
-      <c r="Q29">
+      <c r="R29">
         <v>1.1122</v>
       </c>
-      <c r="R29">
+      <c r="S29">
         <v>1.4423</v>
       </c>
-      <c r="S29">
+      <c r="T29">
         <v>1.453</v>
       </c>
-      <c r="T29">
+      <c r="U29">
         <v>1.5985</v>
       </c>
-      <c r="U29">
+      <c r="V29">
         <v>-3.9027</v>
       </c>
-      <c r="V29">
+      <c r="W29">
         <v>1.3749</v>
       </c>
-      <c r="W29">
+      <c r="X29">
         <v>1.396</v>
       </c>
-      <c r="X29">
+      <c r="Y29">
         <v>1.6054</v>
       </c>
-      <c r="Y29">
+      <c r="Z29">
         <v>1.3769</v>
       </c>
-      <c r="Z29">
+      <c r="AA29">
         <v>1.5337</v>
       </c>
-      <c r="AA29">
+      <c r="AB29">
         <v>1.4305</v>
       </c>
-      <c r="AB29">
+      <c r="AC29">
         <v>1.5896</v>
       </c>
-      <c r="AC29">
+      <c r="AD29">
         <v>1.1471</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>1.1962</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>1.606</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>1.5287</v>
       </c>
-      <c r="AG29">
+      <c r="AH29">
         <v>0.8921</v>
       </c>
-      <c r="AH29">
+      <c r="AI29">
         <v>1.658</v>
       </c>
-      <c r="AI29">
+      <c r="AJ29">
         <v>1.5051</v>
       </c>
-      <c r="AJ29">
+      <c r="AK29">
         <v>1.6443</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>1.2243</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>1.035</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>1.3249</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>1.2232</v>
       </c>
     </row>
-    <row r="30" spans="1:40">
-      <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="B30">
+    <row r="30" spans="1:41">
+      <c r="A30" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30">
         <v>1.6964</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>1.8307</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.9584</v>
       </c>
-      <c r="E30">
+      <c r="F30">
         <v>1.7995</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>1.3929</v>
       </c>
-      <c r="G30">
+      <c r="H30">
         <v>2.3848</v>
       </c>
-      <c r="H30">
+      <c r="I30">
         <v>2.3548</v>
       </c>
-      <c r="I30">
+      <c r="J30">
         <v>0.6608000000000001</v>
       </c>
-      <c r="J30">
+      <c r="K30">
         <v>1.35</v>
       </c>
-      <c r="K30">
+      <c r="L30">
         <v>1.3772</v>
       </c>
-      <c r="L30">
+      <c r="M30">
         <v>2.2007</v>
       </c>
-      <c r="M30">
+      <c r="N30">
         <v>1.5278</v>
       </c>
-      <c r="N30">
+      <c r="O30">
         <v>0.6652</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>2.1139</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>1.409</v>
       </c>
-      <c r="Q30">
+      <c r="R30">
         <v>1.1362</v>
       </c>
-      <c r="R30">
+      <c r="S30">
         <v>1.4662</v>
       </c>
-      <c r="S30">
+      <c r="T30">
         <v>1.4741</v>
       </c>
-      <c r="T30">
+      <c r="U30">
         <v>1.6281</v>
       </c>
-      <c r="U30">
+      <c r="V30">
         <v>-3.9746</v>
       </c>
-      <c r="V30">
+      <c r="W30">
         <v>1.4021</v>
       </c>
-      <c r="W30">
+      <c r="X30">
         <v>1.4217</v>
       </c>
-      <c r="X30">
+      <c r="Y30">
         <v>1.6338</v>
       </c>
-      <c r="Y30">
+      <c r="Z30">
         <v>1.4061</v>
       </c>
-      <c r="Z30">
+      <c r="AA30">
         <v>1.5639</v>
       </c>
-      <c r="AA30">
+      <c r="AB30">
         <v>1.4559</v>
       </c>
-      <c r="AB30">
+      <c r="AC30">
         <v>1.6165</v>
       </c>
-      <c r="AC30">
+      <c r="AD30">
         <v>1.1648</v>
       </c>
-      <c r="AD30">
+      <c r="AE30">
         <v>1.213</v>
       </c>
-      <c r="AE30">
+      <c r="AF30">
         <v>1.629</v>
       </c>
-      <c r="AF30">
+      <c r="AG30">
         <v>1.5525</v>
       </c>
-      <c r="AG30">
+      <c r="AH30">
         <v>0.908</v>
       </c>
-      <c r="AH30">
+      <c r="AI30">
         <v>1.6874</v>
       </c>
-      <c r="AI30">
+      <c r="AJ30">
         <v>1.5306</v>
       </c>
-      <c r="AJ30">
+      <c r="AK30">
         <v>1.6722</v>
       </c>
-      <c r="AK30">
+      <c r="AL30">
         <v>1.2479</v>
       </c>
-      <c r="AL30">
+      <c r="AM30">
         <v>1.058</v>
       </c>
-      <c r="AM30">
+      <c r="AN30">
         <v>1.3642</v>
       </c>
-      <c r="AN30">
+      <c r="AO30">
         <v>1.2533</v>
       </c>
     </row>
-    <row r="31" spans="1:40">
-      <c r="A31" t="s">
-        <v>30</v>
+    <row r="31" spans="1:41">
+      <c r="A31" s="1" t="s">
+        <v>70</v>
       </c>
       <c r="B31">
+        <v>1.3283</v>
+      </c>
+      <c r="C31">
         <v>1.6751</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>1.8044</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.931</v>
       </c>
-      <c r="E31">
+      <c r="F31">
         <v>1.7684</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>1.3709</v>
       </c>
-      <c r="G31">
+      <c r="H31">
         <v>2.3499</v>
       </c>
-      <c r="H31">
+      <c r="I31">
         <v>2.3186</v>
       </c>
-      <c r="I31">
+      <c r="J31">
         <v>0.6477000000000001</v>
       </c>
-      <c r="J31">
+      <c r="K31">
         <v>1.3314</v>
       </c>
-      <c r="K31">
+      <c r="L31">
         <v>1.3603</v>
       </c>
-      <c r="L31">
+      <c r="M31">
         <v>2.17</v>
       </c>
-      <c r="M31">
+      <c r="N31">
         <v>1.5036</v>
       </c>
-      <c r="N31">
+      <c r="O31">
         <v>0.6566</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>2.0831</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>1.3891</v>
       </c>
-      <c r="Q31">
+      <c r="R31">
         <v>1.1122</v>
       </c>
-      <c r="R31">
+      <c r="S31">
         <v>1.4423</v>
       </c>
-      <c r="S31">
+      <c r="T31">
         <v>1.453</v>
       </c>
-      <c r="T31">
+      <c r="U31">
         <v>1.5985</v>
       </c>
-      <c r="U31">
+      <c r="V31">
         <v>-3.9027</v>
       </c>
-      <c r="V31">
+      <c r="W31">
         <v>1.3749</v>
       </c>
-      <c r="W31">
+      <c r="X31">
         <v>1.396</v>
       </c>
-      <c r="X31">
+      <c r="Y31">
         <v>1.6054</v>
       </c>
-      <c r="Y31">
+      <c r="Z31">
         <v>1.3769</v>
       </c>
-      <c r="Z31">
+      <c r="AA31">
         <v>1.5337</v>
       </c>
-      <c r="AA31">
+      <c r="AB31">
         <v>1.4305</v>
       </c>
-      <c r="AB31">
+      <c r="AC31">
         <v>1.5896</v>
       </c>
-      <c r="AC31">
+      <c r="AD31">
         <v>1.1471</v>
       </c>
-      <c r="AD31">
+      <c r="AE31">
         <v>1.1962</v>
       </c>
-      <c r="AE31">
+      <c r="AF31">
         <v>1.606</v>
       </c>
-      <c r="AF31">
+      <c r="AG31">
         <v>1.5287</v>
       </c>
-      <c r="AG31">
+      <c r="AH31">
         <v>0.8921</v>
       </c>
-      <c r="AH31">
+      <c r="AI31">
         <v>1.658</v>
       </c>
-      <c r="AI31">
+      <c r="AJ31">
         <v>1.5051</v>
       </c>
-      <c r="AJ31">
+      <c r="AK31">
         <v>1.6443</v>
       </c>
-      <c r="AK31">
+      <c r="AL31">
         <v>1.2243</v>
       </c>
-      <c r="AL31">
+      <c r="AM31">
         <v>1.035</v>
       </c>
-      <c r="AM31">
+      <c r="AN31">
         <v>1.3249</v>
       </c>
-      <c r="AN31">
+      <c r="AO31">
         <v>1.2232</v>
       </c>
     </row>
-    <row r="32" spans="1:40">
-      <c r="A32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B32">
+    <row r="32" spans="1:41">
+      <c r="A32" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32">
         <v>2661300000</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2667900000</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>2666500000</v>
       </c>
-      <c r="E32">
+      <c r="F32">
         <v>2670200000</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>2674900000</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>2671600000</v>
       </c>
-      <c r="H32">
+      <c r="I32">
         <v>2672700000</v>
       </c>
-      <c r="I32">
+      <c r="J32">
         <v>2669200000</v>
       </c>
-      <c r="J32">
+      <c r="K32">
         <v>2669300000</v>
       </c>
-      <c r="K32">
+      <c r="L32">
         <v>2665500000</v>
       </c>
-      <c r="L32">
+      <c r="M32">
         <v>2671000000</v>
       </c>
-      <c r="M32">
+      <c r="N32">
         <v>2669100000</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>2669900000</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>2691700000</v>
       </c>
-      <c r="P32">
+      <c r="Q32">
         <v>2698800000</v>
       </c>
-      <c r="Q32">
+      <c r="R32">
         <v>2724000000</v>
       </c>
-      <c r="R32">
+      <c r="S32">
         <v>2727600000</v>
       </c>
-      <c r="S32">
+      <c r="T32">
         <v>2721300000</v>
       </c>
-      <c r="T32">
+      <c r="U32">
         <v>2731900000</v>
       </c>
-      <c r="U32">
+      <c r="V32">
         <v>2684900000</v>
       </c>
-      <c r="V32">
+      <c r="W32">
         <v>2737700000</v>
       </c>
-      <c r="W32">
+      <c r="X32">
         <v>2741500000</v>
       </c>
-      <c r="X32">
+      <c r="Y32">
         <v>2754500000</v>
       </c>
-      <c r="Y32">
+      <c r="Z32">
         <v>2764500000</v>
       </c>
-      <c r="Z32">
+      <c r="AA32">
         <v>2785400000</v>
       </c>
-      <c r="AA32">
+      <c r="AB32">
         <v>2794200000</v>
       </c>
-      <c r="AB32">
+      <c r="AC32">
         <v>2795400000</v>
       </c>
-      <c r="AC32">
+      <c r="AD32">
         <v>2803300000</v>
       </c>
-      <c r="AD32">
+      <c r="AE32">
         <v>2807200000</v>
       </c>
-      <c r="AE32">
+      <c r="AF32">
         <v>2812000000</v>
       </c>
-      <c r="AF32">
+      <c r="AG32">
         <v>2826000000</v>
       </c>
-      <c r="AG32">
+      <c r="AH32">
         <v>2845300000</v>
       </c>
-      <c r="AH32">
+      <c r="AI32">
         <v>2864300000</v>
       </c>
-      <c r="AI32">
+      <c r="AJ32">
         <v>2874200000</v>
       </c>
-      <c r="AJ32">
+      <c r="AK32">
         <v>2874700000</v>
       </c>
-      <c r="AK32">
+      <c r="AL32">
         <v>2872000000</v>
       </c>
-      <c r="AL32">
+      <c r="AM32">
         <v>2881200000</v>
       </c>
-      <c r="AM32">
+      <c r="AN32">
         <v>2893000000</v>
       </c>
-      <c r="AN32">
+      <c r="AO32">
         <v>2858800000</v>
       </c>
     </row>
-    <row r="33" spans="1:40">
-      <c r="A33" t="s">
-        <v>32</v>
+    <row r="33" spans="1:41">
+      <c r="A33" s="1" t="s">
+        <v>72</v>
       </c>
       <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
         <v>0.324</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>0.32</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>0.3271</v>
       </c>
-      <c r="E33">
+      <c r="F33">
         <v>0.2722</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>0.2441</v>
       </c>
-      <c r="G33">
+      <c r="H33">
         <v>0.3669</v>
       </c>
-      <c r="H33">
+      <c r="I33">
         <v>0.4212</v>
       </c>
-      <c r="I33">
+      <c r="J33">
         <v>0.164</v>
       </c>
-      <c r="J33">
+      <c r="K33">
         <v>0.2976</v>
       </c>
-      <c r="K33">
+      <c r="L33">
         <v>0.3125</v>
       </c>
-      <c r="L33">
+      <c r="M33">
         <v>0.4035</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>0.2988</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>0.1694</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>0.4337</v>
       </c>
-      <c r="P33">
+      <c r="Q33">
         <v>0.3189</v>
       </c>
-      <c r="Q33">
+      <c r="R33">
         <v>0.26</v>
       </c>
-      <c r="R33">
+      <c r="S33">
         <v>0.323</v>
       </c>
-      <c r="S33">
+      <c r="T33">
         <v>0.3394</v>
       </c>
-      <c r="T33">
+      <c r="U33">
         <v>0.3798</v>
       </c>
-      <c r="U33">
+      <c r="V33">
         <v>0.2371</v>
       </c>
-      <c r="V33">
+      <c r="W33">
         <v>0.3463</v>
       </c>
-      <c r="W33">
+      <c r="X33">
         <v>0.3307</v>
       </c>
-      <c r="X33">
+      <c r="Y33">
         <v>0.3834</v>
       </c>
-      <c r="Y33">
+      <c r="Z33">
         <v>0.3128</v>
       </c>
-      <c r="Z33">
+      <c r="AA33">
         <v>0.3635</v>
       </c>
-      <c r="AA33">
+      <c r="AB33">
         <v>0.3291</v>
       </c>
-      <c r="AB33">
+      <c r="AC33">
         <v>0.3677</v>
       </c>
-      <c r="AC33">
+      <c r="AD33">
         <v>0.2809</v>
       </c>
-      <c r="AD33">
+      <c r="AE33">
         <v>0.3044</v>
       </c>
-      <c r="AE33">
+      <c r="AF33">
         <v>0.3815</v>
       </c>
-      <c r="AF33">
+      <c r="AG33">
         <v>0.3814</v>
       </c>
-      <c r="AG33">
+      <c r="AH33">
         <v>0.2109</v>
       </c>
-      <c r="AH33">
+      <c r="AI33">
         <v>0.4276</v>
       </c>
-      <c r="AI33">
+      <c r="AJ33">
         <v>0.3447</v>
       </c>
-      <c r="AJ33">
+      <c r="AK33">
         <v>0.3638</v>
       </c>
-      <c r="AK33">
+      <c r="AL33">
         <v>0.2181</v>
       </c>
-      <c r="AL33">
+      <c r="AM33">
         <v>0.2712</v>
       </c>
-      <c r="AM33">
+      <c r="AN33">
         <v>0.331</v>
       </c>
-      <c r="AN33">
+      <c r="AO33">
         <v>0.3109</v>
       </c>
     </row>
-    <row r="34" spans="1:40">
-      <c r="A34" t="s">
-        <v>33</v>
+    <row r="34" spans="1:41">
+      <c r="A34" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
         <v>0.2641</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>0.2323</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>0.1699</v>
       </c>
-      <c r="E34">
+      <c r="F34">
         <v>0.2311</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>0.3552</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>0.228</v>
       </c>
-      <c r="H34">
+      <c r="I34">
         <v>0.1825</v>
       </c>
-      <c r="I34">
+      <c r="J34">
         <v>0.3712</v>
       </c>
-      <c r="J34">
+      <c r="K34">
         <v>0.3976</v>
       </c>
-      <c r="K34">
+      <c r="L34">
         <v>0.1883</v>
       </c>
-      <c r="L34">
+      <c r="M34">
         <v>0.1623</v>
       </c>
-      <c r="M34">
+      <c r="N34">
         <v>0.3084</v>
       </c>
-      <c r="N34">
+      <c r="O34">
         <v>0.3631</v>
       </c>
-      <c r="O34">
+      <c r="P34">
         <v>0.2893</v>
       </c>
-      <c r="P34">
+      <c r="Q34">
         <v>0.177</v>
       </c>
-      <c r="Q34">
+      <c r="R34">
         <v>0.3062</v>
       </c>
-      <c r="R34">
+      <c r="S34">
         <v>0.3082</v>
       </c>
-      <c r="S34">
+      <c r="T34">
         <v>0.2918</v>
       </c>
-      <c r="T34">
+      <c r="U34">
         <v>0.1802</v>
       </c>
-      <c r="U34">
+      <c r="V34">
         <v>0.3023</v>
       </c>
-      <c r="V34">
+      <c r="W34">
         <v>0.3189</v>
       </c>
-      <c r="W34">
+      <c r="X34">
         <v>0.3064</v>
       </c>
-      <c r="X34">
+      <c r="Y34">
         <v>0.164</v>
       </c>
-      <c r="Y34">
+      <c r="Z34">
         <v>0.3674</v>
       </c>
-      <c r="Z34">
+      <c r="AA34">
         <v>0.3008</v>
       </c>
-      <c r="AA34">
+      <c r="AB34">
         <v>0.2469</v>
       </c>
-      <c r="AB34">
+      <c r="AC34">
         <v>0.1252</v>
       </c>
-      <c r="AC34">
+      <c r="AD34">
         <v>0.2855</v>
       </c>
-      <c r="AD34">
+      <c r="AE34">
         <v>0.359</v>
       </c>
-      <c r="AE34">
+      <c r="AF34">
         <v>0.3076</v>
       </c>
-      <c r="AF34">
+      <c r="AG34">
         <v>0.1653</v>
       </c>
-      <c r="AG34">
+      <c r="AH34">
         <v>0.2522</v>
       </c>
-      <c r="AH34">
+      <c r="AI34">
         <v>0.252</v>
       </c>
-      <c r="AI34">
+      <c r="AJ34">
         <v>0.2836</v>
       </c>
-      <c r="AJ34">
+      <c r="AK34">
         <v>0.2166</v>
       </c>
-      <c r="AK34">
+      <c r="AL34">
         <v>0.2255</v>
       </c>
-      <c r="AL34">
+      <c r="AM34">
         <v>0.3384</v>
       </c>
-      <c r="AM34">
+      <c r="AN34">
         <v>0.2825</v>
       </c>
-      <c r="AN34">
+      <c r="AO34">
         <v>0.1301</v>
       </c>
     </row>
